--- a/Question List/FINAL450.xlsx
+++ b/Question List/FINAL450.xlsx
@@ -1665,11 +1665,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2245,7 +2245,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,7 +2712,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Question List/FINAL450.xlsx
+++ b/Question List/FINAL450.xlsx
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Reverse the array</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find the maximum and minimum element in an array</t>
   </si>
   <si>
@@ -188,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reverse a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Check whether a String is Palindrome or not</t>
@@ -1665,11 +1665,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C102" activeCellId="0" sqref="C102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1710,7 +1710,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,7 +1718,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
@@ -1729,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>5</v>
@@ -1740,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>5</v>
@@ -1751,7 +1751,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -1762,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>5</v>
@@ -1773,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
@@ -1784,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
@@ -1795,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
@@ -1806,7 +1806,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
@@ -1828,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
@@ -1839,10 +1839,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,7 +1850,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
@@ -1861,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
@@ -1872,7 +1872,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>5</v>
@@ -1883,7 +1883,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
@@ -1894,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -1905,7 +1905,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
@@ -1916,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
@@ -1927,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
@@ -1938,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
@@ -1960,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>5</v>
@@ -1971,7 +1971,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
@@ -1982,7 +1982,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
@@ -1993,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -2004,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
@@ -2015,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
@@ -2026,7 +2026,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
@@ -2037,7 +2037,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>5</v>
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
@@ -2059,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -2070,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
@@ -2081,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
@@ -2092,7 +2092,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
@@ -2228,29 +2228,29 @@
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>58</v>
@@ -2261,18 +2261,18 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>60</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>61</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>62</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>63</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>64</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>65</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>66</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>67</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>68</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>69</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>70</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>71</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>72</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>73</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>74</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>75</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>76</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>77</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>78</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>79</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>80</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>81</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>82</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>83</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>84</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>85</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>86</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>87</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>88</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>89</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>90</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>91</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>92</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>93</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>94</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>95</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>96</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>97</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>98</v>
@@ -2712,7 +2712,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2723,7 +2723,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
